--- a/Report/Production_Docs/Testing/Smickopoly_Static_Testing_Spreadsheet_v1.xlsx
+++ b/Report/Production_Docs/Testing/Smickopoly_Static_Testing_Spreadsheet_v1.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paddy\Documents\Msc Software Development\CSC7053 Software Engineering\Project\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F88C1EC-F027-4605-899F-EABA603DA655}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366B1AF1-216C-4E10-8CC8-5B1F99D20853}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -230,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="323">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -413,9 +413,6 @@
   </si>
   <si>
     <t>“A document specifying a sequence of actions for the execution of a test. Also known as test script or manual test script.”</t>
-  </si>
-  <si>
-    <t>Passed</t>
   </si>
   <si>
     <t>Stats on Test case runs</t>
@@ -725,9 +722,6 @@
     <t>In Eclipse, in the monoversity package and class, running the PlayGame class.</t>
   </si>
   <si>
-    <t>The console will reqire the users to input details for two players only.</t>
-  </si>
-  <si>
     <t>PBurns</t>
   </si>
   <si>
@@ -791,9 +785,6 @@
     <t>Check that each player is allocated a set amount when they pass the Start/Go square.</t>
   </si>
   <si>
-    <t>If the Player rolls a dice number that, when calculating board position based on the game guide, they are anticipated to land on the Start/Go square, the system will ouput an appropriate message reflecting such.</t>
-  </si>
-  <si>
     <t>If the Player rolls a dice number that, when calculating board position based on the game guide, they are anticipated to land on the Start/Go square, the system increment their bank balance by £200 and will output their balance to screen reflecting such.</t>
   </si>
   <si>
@@ -863,9 +854,6 @@
     <t>Check that the properties in the two-property group are more expensive than those in the three-property group.</t>
   </si>
   <si>
-    <t>When a Player lands on the Bot or Hafield squares (the Bar property group) the property prices will be less than those identified when the Player lands on the PEC, DKB and CSB squares (QUB Premises property group).</t>
-  </si>
-  <si>
     <t>To show that a player cannot develop a property square in (i.e. add a house or similar depending on the game choices) that belongs to the two-property group unless they own all property squares in that group.</t>
   </si>
   <si>
@@ -944,9 +932,6 @@
     <t>The Player will be offered the option to add a hotel (or similar) to one of the property squares in the Bar property group (the Bot or Hatfield squares) when both property squares have three houses (or similar) already developed on each of them.</t>
   </si>
   <si>
-    <t>Check that the a player cannot build a hotel (or similar depending on the game choices) on a property belonging to the thre-property group when each square in that group does not have three houses (or similar) built on it.</t>
-  </si>
-  <si>
     <t>Check that the a player can build a hotel (or similar depending on the game choices) on a property belonging to the three-property group when each square in that group has three houses (or similar) built on it.</t>
   </si>
   <si>
@@ -1079,12 +1064,6 @@
     <t>The system will increment the player's balance with £200 and this will be displayed on screen, with the reason for the increment also displayed.</t>
   </si>
   <si>
-    <t>The system will increment the player's balance with the calcualted rent (based on the leven of development) and this will be displayed on screen,  along with the reason for the increment.</t>
-  </si>
-  <si>
-    <t>The system will decrement the player's balance with the calcualted rent (based on the leven of development) and this will be displayed on screen, along with the reason for the decrement.</t>
-  </si>
-  <si>
     <t>Check that the players current bank balance is displayed following a decrement due to the player electing to purchase a property square.</t>
   </si>
   <si>
@@ -1157,9 +1136,6 @@
     <t>TCase_41</t>
   </si>
   <si>
-    <t>TCase_42</t>
-  </si>
-  <si>
     <t>DEF_1</t>
   </si>
   <si>
@@ -1208,10 +1184,103 @@
     <t>When the player lands on a property square the system does not clearly indicate which property group that square belongs to.</t>
   </si>
   <si>
-    <t>The player is not ofe</t>
-  </si>
-  <si>
     <t>The player is not offered the option to add a hotel (or similar - extension in this case).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TProc_1 </t>
+  </si>
+  <si>
+    <t>Manual test (visual inspection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCase_4 TCase_5  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCase_1    TCase_3  </t>
+  </si>
+  <si>
+    <t>After following system prompts to enter player names, and on first roll of the dice for each player, note the bank balance for each before any board moves/actions have occurred. Compare the balances to ensure they are the same.</t>
+  </si>
+  <si>
+    <t>Open Eclipse, then the monoversity package and class, and run the PlayGame class. Check on-screen prompts are provided requesting the user roll a virtual dice. Follow these prompts and note whether a random number is displayed on-screen for each occasion. Check the prompts are sequentially giving each of the two players a turn.</t>
+  </si>
+  <si>
+    <t>Open Eclipse, then the monoversity package and class, and run the PlayGame class. Visually check on-screen prompts are provided requesting the users to enter the Player's names. Visually note how many players names are requested. Check on-screen prompts are provided requesting the user roll a virtual dice</t>
+  </si>
+  <si>
+    <t>The console will require the users to input details for two players only.</t>
+  </si>
+  <si>
+    <t>When a Player lands on the Bot or Hatfield squares (the Bar property group) the property prices will be less than those identified when the Player lands on the PEC, DKB and CSB squares (QUB Premises property group).</t>
+  </si>
+  <si>
+    <t>Check that the a player cannot build a hotel (or similar depending on the game choices) on a property belonging to the three-property group when each square in that group does not have three houses (or similar) built on it.</t>
+  </si>
+  <si>
+    <t>The system will increment the player's balance with the calculated rent (based on the level of development) and this will be displayed on screen,  along with the reason for the increment.</t>
+  </si>
+  <si>
+    <t>The system will decrement the player's balance with the calculated rent (based on the level of development) and this will be displayed on screen, along with the reason for the decrement.</t>
+  </si>
+  <si>
+    <t>TProc_2</t>
+  </si>
+  <si>
+    <t>TProc_3</t>
+  </si>
+  <si>
+    <t>TProc_4</t>
+  </si>
+  <si>
+    <t>TProc_5</t>
+  </si>
+  <si>
+    <t>TProc_6</t>
+  </si>
+  <si>
+    <t>TProc_7</t>
+  </si>
+  <si>
+    <t>Open Eclipse, then the monoversity package and class, and run the PlayGame class. Follow the on-screen prompts to navigate around the board a number of times and note all the squares encountered and the on-screen information displayed for each square. When landing on property squares, specifically note the cost of each and whether the system indicates that property squares (and any  of the other squares) are part of a particular Property Group. Compare these notes to the game board to determine whether property squares are identified as belonging to a specific Property Group and the cost variance between the distinct Property Groups.</t>
+  </si>
+  <si>
+    <t>Open Eclipse, then the monoversity package and class, and run the PlayGame class. Follow the on-screen prompts to navigate around the board a number of times and note all the squares encountered, including whether a Start/Go square is encountered. Note whether a defined fee (£200) is incremented to the current player's bank balance both when they pass the Start/Go square and when they land on the Start/Go square. Take note of the overall theme of the game as you navigate around the board (specifically if it has an overall Queen's University theme).</t>
+  </si>
+  <si>
+    <t>TCase_9 TCase_10   TCase_11 TCase_12 TCase_13   TCase_14 TCase_15 TCase_16   TCase_17 TCase_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCase_6 TCase_7   TCase_8 TCase_22 TCase_31 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCase_18 TCase_19  TCase_20 TCase_21 TCase_23 TCase_24  TCase_25 TCase_26 TCase_29 TCase_34  TCase_35 TCase_36 </t>
+  </si>
+  <si>
+    <t>Open Eclipse, then the monoversity package and class, and run the PlayGame class. Follow the on-screen prompts to navigate around the board a number of times and puchase property squares when presented with the opportunity, noting under what circumstances the user is offered the opportunity to purchase the square (i.e the current state of ownership of the square). Develop the squares when possible, noting when the user is presented with the option to develop the property squares (and any other square) with floors (the game's equivalent of houses) and extensions (the game's equivalent of hotels). Note whether the user's bank balance is amended accordingly following the purchase of a property square, in addition to the development of a floor and the development of an extension on a property square.</t>
+  </si>
+  <si>
+    <t>Open Eclipse, then the monoversity package and class, and run the PlayGame class. Follow the on-screen prompts to navigate around the board a number of times. Note whether the player's bank balance is automatically decremented when they land on any of the squares, specifically if it is decremented when expected (i.e. when the player lands on the Pub Crawl square or on a property that is owned by the other player and the payment of rent is required). Note whether the system informs the player how much is to be decremented, why the decrement was made and the bank balance following such. In the instance a decrement is made to pay rent, note whether the bank balance of the player receiving the rent is accordingly amended and displayed.</t>
+  </si>
+  <si>
+    <t>TCase_28 TCase_30 TCase_32 TCase_33</t>
+  </si>
+  <si>
+    <t>Open Eclipse, then the monoversity package and class, and run the PlayGame class. Follow the on-screen prompts to play the game until one player does not have the required funds to pay a fine and pay a required rent amount (i.e. bankruptcy). Pay attention to the on-screen information to determine whether the correct player (specifically the other player) has been declared the winner and whether the current bank balance for the two players has been displayed.</t>
+  </si>
+  <si>
+    <t>TCase_37 TCase_40</t>
+  </si>
+  <si>
+    <t>Open Eclipse, then the monoversity package and class, and run the PlayGame class. Follow the on-screen prompts and opt to terminate the game if the option is provided. Pay attention to the on-screen information to determine whether the correct player (specifically the other player) has been declared the winner and whether the current bank balance for the two players has been displayed.</t>
+  </si>
+  <si>
+    <t>TCase_38 TCase_39 TCase_41</t>
+  </si>
+  <si>
+    <t>TProc_8</t>
+  </si>
+  <si>
+    <t>TProc_9</t>
   </si>
 </sst>
 </file>
@@ -1731,51 +1800,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-AAE6-42AA-A19C-8DDA74CA0EB9}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-AAE6-42AA-A19C-8DDA74CA0EB9}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-AAE6-42AA-A19C-8DDA74CA0EB9}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1784,27 +1808,25 @@
               <a:effectLst/>
             </c:spPr>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Test Cases'!$U$8:$U$10</c:f>
+              <c:f>'Test Cases'!$U$8:$U$9</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Passed</c:v>
+                  <c:v>Failed</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Not executed</c:v>
                 </c:pt>
               </c:strCache>
@@ -1812,17 +1834,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test Cases'!$V$8:$V$10</c:f>
+              <c:f>'Test Cases'!$V$8:$V$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1889,7 +1908,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Test Cases'!$U$25:$U$26</c:f>
+              <c:f>'Test Cases'!$U$24:$U$25</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1903,7 +1922,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test Cases'!$V$25:$V$26</c:f>
+              <c:f>'Test Cases'!$V$24:$V$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1993,7 +2012,7 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>351367</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>446315</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2023,13 +2042,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>21166</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>16933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>325966</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2402,106 +2421,106 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2518,7 +2537,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2544,331 +2563,399 @@
     </row>
     <row r="2" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F2" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F4" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F5" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F6" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F7" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G8" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C18" s="25" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C19" s="25" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="25" t="s">
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C21" s="25" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C23" s="25" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="25" t="s">
+      <c r="D23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="25" t="s">
+      <c r="D24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="25" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="C26" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="C27" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="C28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2876,12 +2963,12 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Settings!$B$4:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D14</xm:sqref>
+          <xm:sqref>D2:D28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2894,10 +2981,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:CS163"/>
+  <dimension ref="A1:CS162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P62" sqref="P62"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2980,22 +3067,22 @@
     </row>
     <row r="2" spans="1:97" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>134</v>
-      </c>
       <c r="C2" s="44" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G2" s="47" t="s">
         <v>25</v>
@@ -3007,7 +3094,7 @@
         <v>22</v>
       </c>
       <c r="J2" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K2" s="44"/>
       <c r="L2" s="50"/>
@@ -3022,22 +3109,22 @@
     </row>
     <row r="3" spans="1:97" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="E3" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>142</v>
-      </c>
       <c r="F3" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G3" s="47" t="s">
         <v>25</v>
@@ -3049,7 +3136,7 @@
         <v>22</v>
       </c>
       <c r="J3" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K3" s="44"/>
       <c r="L3" s="50"/>
@@ -3064,22 +3151,22 @@
     </row>
     <row r="4" spans="1:97" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B4" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="F4" s="46" t="s">
         <v>86</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>87</v>
       </c>
       <c r="G4" s="47" t="s">
         <v>25</v>
@@ -3091,7 +3178,7 @@
         <v>22</v>
       </c>
       <c r="J4" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K4" s="51"/>
       <c r="L4" s="50"/>
@@ -3106,22 +3193,22 @@
     </row>
     <row r="5" spans="1:97" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="47" t="s">
         <v>25</v>
@@ -3133,7 +3220,7 @@
         <v>22</v>
       </c>
       <c r="J5" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K5" s="51"/>
       <c r="L5" s="50"/>
@@ -3145,22 +3232,22 @@
     </row>
     <row r="6" spans="1:97" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" s="47" t="s">
         <v>25</v>
@@ -3172,7 +3259,7 @@
         <v>22</v>
       </c>
       <c r="J6" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K6" s="51"/>
       <c r="L6" s="50"/>
@@ -3184,22 +3271,22 @@
     </row>
     <row r="7" spans="1:97" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>155</v>
-      </c>
       <c r="F7" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G7" s="47" t="s">
         <v>25</v>
@@ -3211,7 +3298,7 @@
         <v>22</v>
       </c>
       <c r="J7" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K7" s="51"/>
       <c r="L7" s="50"/>
@@ -3221,251 +3308,332 @@
       <c r="P7" s="44"/>
       <c r="Q7" s="51"/>
       <c r="U7" s="32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:97" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:97" s="28" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="56">
+        <v>43161</v>
+      </c>
+      <c r="I8" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" s="44" t="s">
+      <c r="K8" s="58" t="s">
+        <v>274</v>
+      </c>
+      <c r="L8" s="59"/>
+      <c r="M8" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="N8" s="56">
+        <v>43161</v>
+      </c>
+      <c r="O8" s="58"/>
+      <c r="P8" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="V8" s="36">
+        <f>COUNTIF(I3:I91,"*Failed*")</f>
+        <v>8</v>
+      </c>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="32"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="32"/>
+      <c r="AN8" s="32"/>
+      <c r="AO8" s="32"/>
+      <c r="AP8" s="32"/>
+      <c r="AQ8" s="32"/>
+      <c r="AR8" s="32"/>
+      <c r="AS8" s="32"/>
+      <c r="AT8" s="32"/>
+      <c r="AU8" s="32"/>
+      <c r="AV8" s="32"/>
+      <c r="AW8" s="32"/>
+      <c r="AX8" s="32"/>
+      <c r="AY8" s="32"/>
+      <c r="AZ8" s="32"/>
+      <c r="BA8" s="32"/>
+      <c r="BB8" s="32"/>
+      <c r="BC8" s="32"/>
+      <c r="BD8" s="32"/>
+      <c r="BE8" s="32"/>
+      <c r="BF8" s="32"/>
+      <c r="BG8" s="32"/>
+      <c r="BH8" s="32"/>
+      <c r="BI8" s="32"/>
+      <c r="BJ8" s="32"/>
+      <c r="BK8" s="32"/>
+      <c r="BL8" s="32"/>
+      <c r="BM8" s="32"/>
+      <c r="BN8" s="32"/>
+      <c r="BO8" s="32"/>
+      <c r="BP8" s="32"/>
+      <c r="BQ8" s="32"/>
+      <c r="BR8" s="32"/>
+      <c r="BS8" s="32"/>
+      <c r="BT8" s="32"/>
+      <c r="BU8" s="32"/>
+      <c r="BV8" s="32"/>
+      <c r="BW8" s="32"/>
+      <c r="BX8" s="32"/>
+      <c r="BY8" s="32"/>
+      <c r="BZ8" s="32"/>
+      <c r="CA8" s="32"/>
+      <c r="CB8" s="32"/>
+      <c r="CC8" s="32"/>
+      <c r="CD8" s="32"/>
+      <c r="CE8" s="32"/>
+      <c r="CF8" s="32"/>
+      <c r="CG8" s="32"/>
+      <c r="CH8" s="32"/>
+      <c r="CI8" s="32"/>
+      <c r="CJ8" s="32"/>
+      <c r="CK8" s="32"/>
+      <c r="CL8" s="32"/>
+      <c r="CM8" s="32"/>
+      <c r="CN8" s="32"/>
+      <c r="CO8" s="32"/>
+      <c r="CP8" s="32"/>
+      <c r="CQ8" s="32"/>
+      <c r="CR8" s="32"/>
+      <c r="CS8" s="32"/>
+    </row>
+    <row r="9" spans="1:97" ht="69" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="48">
+        <v>43161</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="K9" s="51"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="51"/>
+      <c r="U9" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="V9" s="36">
+        <f>COUNTIF(I4:I91,"*Not*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:97" s="28" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="F8" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="47" t="s">
+      <c r="B10" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="G10" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H10" s="56">
         <v>43161</v>
       </c>
-      <c r="I8" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="K8" s="51"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="51"/>
-      <c r="U8" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="V8" s="36">
-        <f>COUNTIF(I2:I92,"*Passed*")</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:97" s="28" customFormat="1" ht="69" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="52" t="s">
+      <c r="I10" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="F9" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="56">
+      <c r="K10" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="N10" s="56">
         <v>43161</v>
       </c>
-      <c r="I9" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="K9" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="L9" s="59"/>
-      <c r="M9" s="58" t="s">
-        <v>290</v>
-      </c>
-      <c r="N9" s="56">
-        <v>43161</v>
-      </c>
-      <c r="O9" s="58"/>
-      <c r="P9" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="V9" s="36">
-        <f>COUNTIF(I3:I92,"*Failed*")</f>
-        <v>8</v>
-      </c>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="32"/>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32"/>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32"/>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="32"/>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="32"/>
-      <c r="AW9" s="32"/>
-      <c r="AX9" s="32"/>
-      <c r="AY9" s="32"/>
-      <c r="AZ9" s="32"/>
-      <c r="BA9" s="32"/>
-      <c r="BB9" s="32"/>
-      <c r="BC9" s="32"/>
-      <c r="BD9" s="32"/>
-      <c r="BE9" s="32"/>
-      <c r="BF9" s="32"/>
-      <c r="BG9" s="32"/>
-      <c r="BH9" s="32"/>
-      <c r="BI9" s="32"/>
-      <c r="BJ9" s="32"/>
-      <c r="BK9" s="32"/>
-      <c r="BL9" s="32"/>
-      <c r="BM9" s="32"/>
-      <c r="BN9" s="32"/>
-      <c r="BO9" s="32"/>
-      <c r="BP9" s="32"/>
-      <c r="BQ9" s="32"/>
-      <c r="BR9" s="32"/>
-      <c r="BS9" s="32"/>
-      <c r="BT9" s="32"/>
-      <c r="BU9" s="32"/>
-      <c r="BV9" s="32"/>
-      <c r="BW9" s="32"/>
-      <c r="BX9" s="32"/>
-      <c r="BY9" s="32"/>
-      <c r="BZ9" s="32"/>
-      <c r="CA9" s="32"/>
-      <c r="CB9" s="32"/>
-      <c r="CC9" s="32"/>
-      <c r="CD9" s="32"/>
-      <c r="CE9" s="32"/>
-      <c r="CF9" s="32"/>
-      <c r="CG9" s="32"/>
-      <c r="CH9" s="32"/>
-      <c r="CI9" s="32"/>
-      <c r="CJ9" s="32"/>
-      <c r="CK9" s="32"/>
-      <c r="CL9" s="32"/>
-      <c r="CM9" s="32"/>
-      <c r="CN9" s="32"/>
-      <c r="CO9" s="32"/>
-      <c r="CP9" s="32"/>
-      <c r="CQ9" s="32"/>
-      <c r="CR9" s="32"/>
-      <c r="CS9" s="32"/>
-    </row>
-    <row r="10" spans="1:97" ht="69" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="48">
-        <v>43161</v>
-      </c>
-      <c r="I10" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="K10" s="51"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="51"/>
-      <c r="U10" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="V10" s="36">
-        <f>COUNTIF(I4:I92,"*Not*")</f>
-        <v>0</v>
-      </c>
+      <c r="O10" s="58"/>
+      <c r="P10" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="32"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="32"/>
+      <c r="AN10" s="32"/>
+      <c r="AO10" s="32"/>
+      <c r="AP10" s="32"/>
+      <c r="AQ10" s="32"/>
+      <c r="AR10" s="32"/>
+      <c r="AS10" s="32"/>
+      <c r="AT10" s="32"/>
+      <c r="AU10" s="32"/>
+      <c r="AV10" s="32"/>
+      <c r="AW10" s="32"/>
+      <c r="AX10" s="32"/>
+      <c r="AY10" s="32"/>
+      <c r="AZ10" s="32"/>
+      <c r="BA10" s="32"/>
+      <c r="BB10" s="32"/>
+      <c r="BC10" s="32"/>
+      <c r="BD10" s="32"/>
+      <c r="BE10" s="32"/>
+      <c r="BF10" s="32"/>
+      <c r="BG10" s="32"/>
+      <c r="BH10" s="32"/>
+      <c r="BI10" s="32"/>
+      <c r="BJ10" s="32"/>
+      <c r="BK10" s="32"/>
+      <c r="BL10" s="32"/>
+      <c r="BM10" s="32"/>
+      <c r="BN10" s="32"/>
+      <c r="BO10" s="32"/>
+      <c r="BP10" s="32"/>
+      <c r="BQ10" s="32"/>
+      <c r="BR10" s="32"/>
+      <c r="BS10" s="32"/>
+      <c r="BT10" s="32"/>
+      <c r="BU10" s="32"/>
+      <c r="BV10" s="32"/>
+      <c r="BW10" s="32"/>
+      <c r="BX10" s="32"/>
+      <c r="BY10" s="32"/>
+      <c r="BZ10" s="32"/>
+      <c r="CA10" s="32"/>
+      <c r="CB10" s="32"/>
+      <c r="CC10" s="32"/>
+      <c r="CD10" s="32"/>
+      <c r="CE10" s="32"/>
+      <c r="CF10" s="32"/>
+      <c r="CG10" s="32"/>
+      <c r="CH10" s="32"/>
+      <c r="CI10" s="32"/>
+      <c r="CJ10" s="32"/>
+      <c r="CK10" s="32"/>
+      <c r="CL10" s="32"/>
+      <c r="CM10" s="32"/>
+      <c r="CN10" s="32"/>
+      <c r="CO10" s="32"/>
+      <c r="CP10" s="32"/>
+      <c r="CQ10" s="32"/>
+      <c r="CR10" s="32"/>
+      <c r="CS10" s="32"/>
     </row>
     <row r="11" spans="1:97" s="28" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>166</v>
-      </c>
       <c r="F11" s="54" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>25</v>
@@ -3477,21 +3645,21 @@
         <v>23</v>
       </c>
       <c r="J11" s="57" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K11" s="58" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="L11" s="58"/>
       <c r="M11" s="58" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="N11" s="56">
         <v>43161</v>
       </c>
       <c r="O11" s="58"/>
       <c r="P11" s="52" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="Q11" s="58"/>
       <c r="R11" s="32"/>
@@ -3577,22 +3745,22 @@
     </row>
     <row r="12" spans="1:97" s="28" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>25</v>
@@ -3604,21 +3772,21 @@
         <v>23</v>
       </c>
       <c r="J12" s="57" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K12" s="58" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="L12" s="58"/>
       <c r="M12" s="58" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="N12" s="56">
         <v>43161</v>
       </c>
       <c r="O12" s="58"/>
       <c r="P12" s="52" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="Q12" s="58"/>
       <c r="R12" s="32"/>
@@ -3704,22 +3872,22 @@
     </row>
     <row r="13" spans="1:97" s="28" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F13" s="54" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G13" s="55" t="s">
         <v>25</v>
@@ -3731,21 +3899,21 @@
         <v>23</v>
       </c>
       <c r="J13" s="57" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K13" s="58" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="L13" s="58"/>
       <c r="M13" s="58" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="N13" s="56">
         <v>43161</v>
       </c>
       <c r="O13" s="58"/>
       <c r="P13" s="52" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="58"/>
       <c r="R13" s="32"/>
@@ -3831,22 +3999,22 @@
     </row>
     <row r="14" spans="1:97" s="28" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>25</v>
@@ -3858,21 +4026,21 @@
         <v>23</v>
       </c>
       <c r="J14" s="57" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K14" s="58" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="L14" s="58"/>
       <c r="M14" s="58" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="N14" s="56">
         <v>43161</v>
       </c>
       <c r="O14" s="58"/>
       <c r="P14" s="52" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="58"/>
       <c r="R14" s="32"/>
@@ -3956,151 +4124,63 @@
       <c r="CR14" s="32"/>
       <c r="CS14" s="32"/>
     </row>
-    <row r="15" spans="1:97" s="28" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="52" t="s">
+    <row r="15" spans="1:97" s="32" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="65">
+        <v>43161</v>
+      </c>
+      <c r="I15" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="G15" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="56">
-        <v>43161</v>
-      </c>
-      <c r="I15" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="K15" s="58" t="s">
-        <v>287</v>
-      </c>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58" t="s">
-        <v>290</v>
-      </c>
-      <c r="N15" s="56">
-        <v>43161</v>
-      </c>
-      <c r="O15" s="58"/>
-      <c r="P15" s="52" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="32"/>
-      <c r="AN15" s="32"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="32"/>
-      <c r="AQ15" s="32"/>
-      <c r="AR15" s="32"/>
-      <c r="AS15" s="32"/>
-      <c r="AT15" s="32"/>
-      <c r="AU15" s="32"/>
-      <c r="AV15" s="32"/>
-      <c r="AW15" s="32"/>
-      <c r="AX15" s="32"/>
-      <c r="AY15" s="32"/>
-      <c r="AZ15" s="32"/>
-      <c r="BA15" s="32"/>
-      <c r="BB15" s="32"/>
-      <c r="BC15" s="32"/>
-      <c r="BD15" s="32"/>
-      <c r="BE15" s="32"/>
-      <c r="BF15" s="32"/>
-      <c r="BG15" s="32"/>
-      <c r="BH15" s="32"/>
-      <c r="BI15" s="32"/>
-      <c r="BJ15" s="32"/>
-      <c r="BK15" s="32"/>
-      <c r="BL15" s="32"/>
-      <c r="BM15" s="32"/>
-      <c r="BN15" s="32"/>
-      <c r="BO15" s="32"/>
-      <c r="BP15" s="32"/>
-      <c r="BQ15" s="32"/>
-      <c r="BR15" s="32"/>
-      <c r="BS15" s="32"/>
-      <c r="BT15" s="32"/>
-      <c r="BU15" s="32"/>
-      <c r="BV15" s="32"/>
-      <c r="BW15" s="32"/>
-      <c r="BX15" s="32"/>
-      <c r="BY15" s="32"/>
-      <c r="BZ15" s="32"/>
-      <c r="CA15" s="32"/>
-      <c r="CB15" s="32"/>
-      <c r="CC15" s="32"/>
-      <c r="CD15" s="32"/>
-      <c r="CE15" s="32"/>
-      <c r="CF15" s="32"/>
-      <c r="CG15" s="32"/>
-      <c r="CH15" s="32"/>
-      <c r="CI15" s="32"/>
-      <c r="CJ15" s="32"/>
-      <c r="CK15" s="32"/>
-      <c r="CL15" s="32"/>
-      <c r="CM15" s="32"/>
-      <c r="CN15" s="32"/>
-      <c r="CO15" s="32"/>
-      <c r="CP15" s="32"/>
-      <c r="CQ15" s="32"/>
-      <c r="CR15" s="32"/>
-      <c r="CS15" s="32"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="67"/>
     </row>
     <row r="16" spans="1:97" s="32" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
-        <v>178</v>
+      <c r="A16" s="44" t="s">
+        <v>175</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="F16" s="63" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G16" s="64" t="s">
         <v>25</v>
@@ -4112,7 +4192,7 @@
         <v>22</v>
       </c>
       <c r="J16" s="66" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K16" s="67"/>
       <c r="L16" s="67"/>
@@ -4123,23 +4203,23 @@
       <c r="Q16" s="67"/>
     </row>
     <row r="17" spans="1:97" s="32" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="60" t="s">
-        <v>179</v>
+      <c r="A17" s="44" t="s">
+        <v>176</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F17" s="63" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G17" s="64" t="s">
         <v>25</v>
@@ -4151,7 +4231,7 @@
         <v>22</v>
       </c>
       <c r="J17" s="66" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K17" s="67"/>
       <c r="L17" s="67"/>
@@ -4161,60 +4241,60 @@
       <c r="P17" s="60"/>
       <c r="Q17" s="67"/>
     </row>
-    <row r="18" spans="1:97" s="32" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="B18" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="60" t="s">
+    <row r="18" spans="1:97" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="48">
+        <v>43161</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="E18" s="60" t="s">
-        <v>293</v>
-      </c>
-      <c r="F18" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="G18" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="65">
-        <v>43161</v>
-      </c>
-      <c r="I18" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="67"/>
-    </row>
-    <row r="19" spans="1:97" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
-        <v>181</v>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="51"/>
+    </row>
+    <row r="19" spans="1:97" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
+        <v>178</v>
       </c>
       <c r="B19" s="44" t="s">
         <v>182</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>141</v>
+        <v>183</v>
+      </c>
+      <c r="D19" s="69" t="s">
+        <v>139</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F19" s="68" t="s">
         <v>107</v>
@@ -4229,7 +4309,7 @@
         <v>22</v>
       </c>
       <c r="J19" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K19" s="51"/>
       <c r="L19" s="51"/>
@@ -4239,24 +4319,24 @@
       <c r="P19" s="44"/>
       <c r="Q19" s="51"/>
     </row>
-    <row r="20" spans="1:97" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
-        <v>192</v>
+    <row r="20" spans="1:97" ht="69" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
+        <v>188</v>
       </c>
       <c r="B20" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="D20" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="D20" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>188</v>
-      </c>
       <c r="F20" s="68" t="s">
-        <v>108</v>
+        <v>232</v>
       </c>
       <c r="G20" s="47" t="s">
         <v>25</v>
@@ -4268,7 +4348,7 @@
         <v>22</v>
       </c>
       <c r="J20" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K20" s="51"/>
       <c r="L20" s="51"/>
@@ -4278,24 +4358,24 @@
       <c r="P20" s="44"/>
       <c r="Q20" s="51"/>
     </row>
-    <row r="21" spans="1:97" ht="69" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
+    <row r="21" spans="1:97" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="B21" s="44" t="s">
-        <v>189</v>
-      </c>
       <c r="C21" s="44" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D21" s="69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F21" s="68" t="s">
-        <v>237</v>
+        <v>108</v>
       </c>
       <c r="G21" s="47" t="s">
         <v>25</v>
@@ -4307,7 +4387,7 @@
         <v>22</v>
       </c>
       <c r="J21" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K21" s="51"/>
       <c r="L21" s="51"/>
@@ -4317,24 +4397,24 @@
       <c r="P21" s="44"/>
       <c r="Q21" s="51"/>
     </row>
-    <row r="22" spans="1:97" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="60" t="s">
+    <row r="22" spans="1:97" ht="69" x14ac:dyDescent="0.25">
+      <c r="A22" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="C22" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="C22" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="D22" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>188</v>
-      </c>
       <c r="F22" s="68" t="s">
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="G22" s="47" t="s">
         <v>25</v>
@@ -4346,7 +4426,7 @@
         <v>22</v>
       </c>
       <c r="J22" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K22" s="51"/>
       <c r="L22" s="51"/>
@@ -4356,24 +4436,24 @@
       <c r="P22" s="44"/>
       <c r="Q22" s="51"/>
     </row>
-    <row r="23" spans="1:97" ht="69" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
-        <v>195</v>
+    <row r="23" spans="1:97" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="44" t="s">
+        <v>191</v>
       </c>
       <c r="B23" s="44" t="s">
         <v>198</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="D23" s="69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="G23" s="47" t="s">
         <v>25</v>
@@ -4385,7 +4465,7 @@
         <v>22</v>
       </c>
       <c r="J23" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K23" s="51"/>
       <c r="L23" s="51"/>
@@ -4394,418 +4474,416 @@
       <c r="O23" s="51"/>
       <c r="P23" s="44"/>
       <c r="Q23" s="51"/>
-    </row>
-    <row r="24" spans="1:97" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
-        <v>196</v>
-      </c>
-      <c r="B24" s="44" t="s">
+      <c r="U23" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:97" s="32" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="60" t="s">
         <v>202</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="F24" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="65">
+        <v>43161</v>
+      </c>
+      <c r="I24" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="E24" s="44" t="s">
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67" t="s">
+        <v>282</v>
+      </c>
+      <c r="N24" s="65">
+        <v>43161</v>
+      </c>
+      <c r="O24" s="67"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="67"/>
+      <c r="U24" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="V24" s="36">
+        <f>COUNTIF(M2:M51,"*Minor*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:97" s="28" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="F24" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="47" t="s">
+      <c r="C25" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="F25" s="73" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="48">
+      <c r="H25" s="56">
         <v>43161</v>
       </c>
-      <c r="I24" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="51"/>
-      <c r="U24" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:97" s="32" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="60" t="s">
-        <v>216</v>
-      </c>
-      <c r="B25" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="D25" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" s="60" t="s">
-        <v>206</v>
-      </c>
-      <c r="F25" s="71" t="s">
-        <v>235</v>
-      </c>
-      <c r="G25" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="65">
+      <c r="I25" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="K25" s="58" t="s">
+        <v>280</v>
+      </c>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="N25" s="56">
         <v>43161</v>
       </c>
-      <c r="I25" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67" t="s">
+      <c r="O25" s="58"/>
+      <c r="P25" s="52" t="s">
         <v>290</v>
       </c>
-      <c r="N25" s="65">
-        <v>43161</v>
-      </c>
-      <c r="O25" s="67"/>
-      <c r="P25" s="60" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q25" s="67"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
       <c r="U25" s="32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V25" s="36">
-        <f>COUNTIF(M2:M52,"*Minor*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:97" s="28" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="s">
-        <v>217</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="D26" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="E26" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="F26" s="73" t="s">
-        <v>235</v>
-      </c>
-      <c r="G26" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="56">
-        <v>43161</v>
-      </c>
-      <c r="I26" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="K26" s="58" t="s">
-        <v>288</v>
-      </c>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58" t="s">
-        <v>290</v>
-      </c>
-      <c r="N26" s="56">
-        <v>43161</v>
-      </c>
-      <c r="O26" s="58"/>
-      <c r="P26" s="52" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="V26" s="36">
         <f>COUNTIF(M2:M7,"*Major*")</f>
         <v>0</v>
       </c>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
-      <c r="AJ26" s="32"/>
-      <c r="AK26" s="32"/>
-      <c r="AL26" s="32"/>
-      <c r="AM26" s="32"/>
-      <c r="AN26" s="32"/>
-      <c r="AO26" s="32"/>
-      <c r="AP26" s="32"/>
-      <c r="AQ26" s="32"/>
-      <c r="AR26" s="32"/>
-      <c r="AS26" s="32"/>
-      <c r="AT26" s="32"/>
-      <c r="AU26" s="32"/>
-      <c r="AV26" s="32"/>
-      <c r="AW26" s="32"/>
-      <c r="AX26" s="32"/>
-      <c r="AY26" s="32"/>
-      <c r="AZ26" s="32"/>
-      <c r="BA26" s="32"/>
-      <c r="BB26" s="32"/>
-      <c r="BC26" s="32"/>
-      <c r="BD26" s="32"/>
-      <c r="BE26" s="32"/>
-      <c r="BF26" s="32"/>
-      <c r="BG26" s="32"/>
-      <c r="BH26" s="32"/>
-      <c r="BI26" s="32"/>
-      <c r="BJ26" s="32"/>
-      <c r="BK26" s="32"/>
-      <c r="BL26" s="32"/>
-      <c r="BM26" s="32"/>
-      <c r="BN26" s="32"/>
-      <c r="BO26" s="32"/>
-      <c r="BP26" s="32"/>
-      <c r="BQ26" s="32"/>
-      <c r="BR26" s="32"/>
-      <c r="BS26" s="32"/>
-      <c r="BT26" s="32"/>
-      <c r="BU26" s="32"/>
-      <c r="BV26" s="32"/>
-      <c r="BW26" s="32"/>
-      <c r="BX26" s="32"/>
-      <c r="BY26" s="32"/>
-      <c r="BZ26" s="32"/>
-      <c r="CA26" s="32"/>
-      <c r="CB26" s="32"/>
-      <c r="CC26" s="32"/>
-      <c r="CD26" s="32"/>
-      <c r="CE26" s="32"/>
-      <c r="CF26" s="32"/>
-      <c r="CG26" s="32"/>
-      <c r="CH26" s="32"/>
-      <c r="CI26" s="32"/>
-      <c r="CJ26" s="32"/>
-      <c r="CK26" s="32"/>
-      <c r="CL26" s="32"/>
-      <c r="CM26" s="32"/>
-      <c r="CN26" s="32"/>
-      <c r="CO26" s="32"/>
-      <c r="CP26" s="32"/>
-      <c r="CQ26" s="32"/>
-      <c r="CR26" s="32"/>
-      <c r="CS26" s="32"/>
-    </row>
-    <row r="27" spans="1:97" s="32" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="60" t="s">
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="32"/>
+      <c r="AD25" s="32"/>
+      <c r="AE25" s="32"/>
+      <c r="AF25" s="32"/>
+      <c r="AG25" s="32"/>
+      <c r="AH25" s="32"/>
+      <c r="AI25" s="32"/>
+      <c r="AJ25" s="32"/>
+      <c r="AK25" s="32"/>
+      <c r="AL25" s="32"/>
+      <c r="AM25" s="32"/>
+      <c r="AN25" s="32"/>
+      <c r="AO25" s="32"/>
+      <c r="AP25" s="32"/>
+      <c r="AQ25" s="32"/>
+      <c r="AR25" s="32"/>
+      <c r="AS25" s="32"/>
+      <c r="AT25" s="32"/>
+      <c r="AU25" s="32"/>
+      <c r="AV25" s="32"/>
+      <c r="AW25" s="32"/>
+      <c r="AX25" s="32"/>
+      <c r="AY25" s="32"/>
+      <c r="AZ25" s="32"/>
+      <c r="BA25" s="32"/>
+      <c r="BB25" s="32"/>
+      <c r="BC25" s="32"/>
+      <c r="BD25" s="32"/>
+      <c r="BE25" s="32"/>
+      <c r="BF25" s="32"/>
+      <c r="BG25" s="32"/>
+      <c r="BH25" s="32"/>
+      <c r="BI25" s="32"/>
+      <c r="BJ25" s="32"/>
+      <c r="BK25" s="32"/>
+      <c r="BL25" s="32"/>
+      <c r="BM25" s="32"/>
+      <c r="BN25" s="32"/>
+      <c r="BO25" s="32"/>
+      <c r="BP25" s="32"/>
+      <c r="BQ25" s="32"/>
+      <c r="BR25" s="32"/>
+      <c r="BS25" s="32"/>
+      <c r="BT25" s="32"/>
+      <c r="BU25" s="32"/>
+      <c r="BV25" s="32"/>
+      <c r="BW25" s="32"/>
+      <c r="BX25" s="32"/>
+      <c r="BY25" s="32"/>
+      <c r="BZ25" s="32"/>
+      <c r="CA25" s="32"/>
+      <c r="CB25" s="32"/>
+      <c r="CC25" s="32"/>
+      <c r="CD25" s="32"/>
+      <c r="CE25" s="32"/>
+      <c r="CF25" s="32"/>
+      <c r="CG25" s="32"/>
+      <c r="CH25" s="32"/>
+      <c r="CI25" s="32"/>
+      <c r="CJ25" s="32"/>
+      <c r="CK25" s="32"/>
+      <c r="CL25" s="32"/>
+      <c r="CM25" s="32"/>
+      <c r="CN25" s="32"/>
+      <c r="CO25" s="32"/>
+      <c r="CP25" s="32"/>
+      <c r="CQ25" s="32"/>
+      <c r="CR25" s="32"/>
+      <c r="CS25" s="32"/>
+    </row>
+    <row r="26" spans="1:97" s="32" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>300</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="F26" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="65">
+        <v>43161</v>
+      </c>
+      <c r="I26" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67" t="s">
+        <v>282</v>
+      </c>
+      <c r="N26" s="65">
+        <v>43161</v>
+      </c>
+      <c r="O26" s="67"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="67"/>
+    </row>
+    <row r="27" spans="1:97" s="28" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="D27" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="F27" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="G27" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="56">
+        <v>43161</v>
+      </c>
+      <c r="I27" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="K27" s="58" t="s">
+        <v>281</v>
+      </c>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="N27" s="56">
+        <v>43161</v>
+      </c>
+      <c r="O27" s="58"/>
+      <c r="P27" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="32"/>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="32"/>
+      <c r="AH27" s="32"/>
+      <c r="AI27" s="32"/>
+      <c r="AJ27" s="32"/>
+      <c r="AK27" s="32"/>
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="32"/>
+      <c r="AO27" s="32"/>
+      <c r="AP27" s="32"/>
+      <c r="AQ27" s="32"/>
+      <c r="AR27" s="32"/>
+      <c r="AS27" s="32"/>
+      <c r="AT27" s="32"/>
+      <c r="AU27" s="32"/>
+      <c r="AV27" s="32"/>
+      <c r="AW27" s="32"/>
+      <c r="AX27" s="32"/>
+      <c r="AY27" s="32"/>
+      <c r="AZ27" s="32"/>
+      <c r="BA27" s="32"/>
+      <c r="BB27" s="32"/>
+      <c r="BC27" s="32"/>
+      <c r="BD27" s="32"/>
+      <c r="BE27" s="32"/>
+      <c r="BF27" s="32"/>
+      <c r="BG27" s="32"/>
+      <c r="BH27" s="32"/>
+      <c r="BI27" s="32"/>
+      <c r="BJ27" s="32"/>
+      <c r="BK27" s="32"/>
+      <c r="BL27" s="32"/>
+      <c r="BM27" s="32"/>
+      <c r="BN27" s="32"/>
+      <c r="BO27" s="32"/>
+      <c r="BP27" s="32"/>
+      <c r="BQ27" s="32"/>
+      <c r="BR27" s="32"/>
+      <c r="BS27" s="32"/>
+      <c r="BT27" s="32"/>
+      <c r="BU27" s="32"/>
+      <c r="BV27" s="32"/>
+      <c r="BW27" s="32"/>
+      <c r="BX27" s="32"/>
+      <c r="BY27" s="32"/>
+      <c r="BZ27" s="32"/>
+      <c r="CA27" s="32"/>
+      <c r="CB27" s="32"/>
+      <c r="CC27" s="32"/>
+      <c r="CD27" s="32"/>
+      <c r="CE27" s="32"/>
+      <c r="CF27" s="32"/>
+      <c r="CG27" s="32"/>
+      <c r="CH27" s="32"/>
+      <c r="CI27" s="32"/>
+      <c r="CJ27" s="32"/>
+      <c r="CK27" s="32"/>
+      <c r="CL27" s="32"/>
+      <c r="CM27" s="32"/>
+      <c r="CN27" s="32"/>
+      <c r="CO27" s="32"/>
+      <c r="CP27" s="32"/>
+      <c r="CQ27" s="32"/>
+      <c r="CR27" s="32"/>
+      <c r="CS27" s="32"/>
+    </row>
+    <row r="28" spans="1:97" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="B27" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="C27" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="D27" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="F27" s="71" t="s">
-        <v>112</v>
-      </c>
-      <c r="G27" s="64" t="s">
+      <c r="F28" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="65">
+      <c r="H28" s="48">
         <v>43161</v>
       </c>
-      <c r="I27" s="66" t="s">
+      <c r="I28" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="J27" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67" t="s">
-        <v>290</v>
-      </c>
-      <c r="N27" s="65">
-        <v>43161</v>
-      </c>
-      <c r="O27" s="67"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="67"/>
-    </row>
-    <row r="28" spans="1:97" s="28" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="52" t="s">
-        <v>219</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>211</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="D28" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="E28" s="52" t="s">
+      <c r="J28" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="51"/>
+    </row>
+    <row r="29" spans="1:97" ht="69" x14ac:dyDescent="0.25">
+      <c r="A29" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="F28" s="73" t="s">
-        <v>236</v>
-      </c>
-      <c r="G28" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="56">
-        <v>43161</v>
-      </c>
-      <c r="I28" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="K28" s="58" t="s">
-        <v>289</v>
-      </c>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58" t="s">
-        <v>290</v>
-      </c>
-      <c r="N28" s="56">
-        <v>43161</v>
-      </c>
-      <c r="O28" s="58"/>
-      <c r="P28" s="52" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="32"/>
-      <c r="AI28" s="32"/>
-      <c r="AJ28" s="32"/>
-      <c r="AK28" s="32"/>
-      <c r="AL28" s="32"/>
-      <c r="AM28" s="32"/>
-      <c r="AN28" s="32"/>
-      <c r="AO28" s="32"/>
-      <c r="AP28" s="32"/>
-      <c r="AQ28" s="32"/>
-      <c r="AR28" s="32"/>
-      <c r="AS28" s="32"/>
-      <c r="AT28" s="32"/>
-      <c r="AU28" s="32"/>
-      <c r="AV28" s="32"/>
-      <c r="AW28" s="32"/>
-      <c r="AX28" s="32"/>
-      <c r="AY28" s="32"/>
-      <c r="AZ28" s="32"/>
-      <c r="BA28" s="32"/>
-      <c r="BB28" s="32"/>
-      <c r="BC28" s="32"/>
-      <c r="BD28" s="32"/>
-      <c r="BE28" s="32"/>
-      <c r="BF28" s="32"/>
-      <c r="BG28" s="32"/>
-      <c r="BH28" s="32"/>
-      <c r="BI28" s="32"/>
-      <c r="BJ28" s="32"/>
-      <c r="BK28" s="32"/>
-      <c r="BL28" s="32"/>
-      <c r="BM28" s="32"/>
-      <c r="BN28" s="32"/>
-      <c r="BO28" s="32"/>
-      <c r="BP28" s="32"/>
-      <c r="BQ28" s="32"/>
-      <c r="BR28" s="32"/>
-      <c r="BS28" s="32"/>
-      <c r="BT28" s="32"/>
-      <c r="BU28" s="32"/>
-      <c r="BV28" s="32"/>
-      <c r="BW28" s="32"/>
-      <c r="BX28" s="32"/>
-      <c r="BY28" s="32"/>
-      <c r="BZ28" s="32"/>
-      <c r="CA28" s="32"/>
-      <c r="CB28" s="32"/>
-      <c r="CC28" s="32"/>
-      <c r="CD28" s="32"/>
-      <c r="CE28" s="32"/>
-      <c r="CF28" s="32"/>
-      <c r="CG28" s="32"/>
-      <c r="CH28" s="32"/>
-      <c r="CI28" s="32"/>
-      <c r="CJ28" s="32"/>
-      <c r="CK28" s="32"/>
-      <c r="CL28" s="32"/>
-      <c r="CM28" s="32"/>
-      <c r="CN28" s="32"/>
-      <c r="CO28" s="32"/>
-      <c r="CP28" s="32"/>
-      <c r="CQ28" s="32"/>
-      <c r="CR28" s="32"/>
-      <c r="CS28" s="32"/>
-    </row>
-    <row r="29" spans="1:97" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="60" t="s">
+      <c r="B29" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="C29" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="C29" s="44" t="s">
-        <v>136</v>
-      </c>
       <c r="D29" s="69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F29" s="68" t="s">
         <v>122</v>
@@ -4820,7 +4898,7 @@
         <v>22</v>
       </c>
       <c r="J29" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K29" s="51"/>
       <c r="L29" s="51"/>
@@ -4831,23 +4909,23 @@
       <c r="Q29" s="51"/>
     </row>
     <row r="30" spans="1:97" ht="69" x14ac:dyDescent="0.25">
-      <c r="A30" s="60" t="s">
-        <v>246</v>
+      <c r="A30" s="44" t="s">
+        <v>241</v>
       </c>
       <c r="B30" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="C30" s="44" t="s">
-        <v>226</v>
-      </c>
-      <c r="D30" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="E30" s="44" t="s">
-        <v>227</v>
-      </c>
       <c r="F30" s="68" t="s">
-        <v>123</v>
+        <v>229</v>
       </c>
       <c r="G30" s="47" t="s">
         <v>25</v>
@@ -4859,7 +4937,7 @@
         <v>22</v>
       </c>
       <c r="J30" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K30" s="51"/>
       <c r="L30" s="51"/>
@@ -4869,24 +4947,24 @@
       <c r="P30" s="44"/>
       <c r="Q30" s="51"/>
     </row>
-    <row r="31" spans="1:97" ht="69" x14ac:dyDescent="0.25">
-      <c r="A31" s="60" t="s">
-        <v>247</v>
+    <row r="31" spans="1:97" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="44" t="s">
+        <v>242</v>
       </c>
       <c r="B31" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="C31" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="D31" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="E31" s="44" t="s">
-        <v>230</v>
-      </c>
       <c r="F31" s="68" t="s">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="G31" s="47" t="s">
         <v>25</v>
@@ -4898,7 +4976,7 @@
         <v>22</v>
       </c>
       <c r="J31" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K31" s="51"/>
       <c r="L31" s="51"/>
@@ -4909,23 +4987,23 @@
       <c r="Q31" s="51"/>
     </row>
     <row r="32" spans="1:97" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="60" t="s">
-        <v>248</v>
+      <c r="A32" s="44" t="s">
+        <v>243</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D32" s="69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="F32" s="68" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="G32" s="47" t="s">
         <v>25</v>
@@ -4937,7 +5015,7 @@
         <v>22</v>
       </c>
       <c r="J32" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K32" s="51"/>
       <c r="L32" s="51"/>
@@ -4947,24 +5025,24 @@
       <c r="P32" s="44"/>
       <c r="Q32" s="51"/>
     </row>
-    <row r="33" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="60" t="s">
-        <v>249</v>
+    <row r="33" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+      <c r="A33" s="44" t="s">
+        <v>244</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D33" s="69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="F33" s="68" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G33" s="47" t="s">
         <v>25</v>
@@ -4976,7 +5054,7 @@
         <v>22</v>
       </c>
       <c r="J33" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K33" s="51"/>
       <c r="L33" s="51"/>
@@ -4987,23 +5065,23 @@
       <c r="Q33" s="51"/>
     </row>
     <row r="34" spans="1:17" ht="69" x14ac:dyDescent="0.25">
-      <c r="A34" s="60" t="s">
-        <v>250</v>
+      <c r="A34" s="44" t="s">
+        <v>245</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D34" s="69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="F34" s="68" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G34" s="47" t="s">
         <v>25</v>
@@ -5015,7 +5093,7 @@
         <v>22</v>
       </c>
       <c r="J34" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K34" s="51"/>
       <c r="L34" s="51"/>
@@ -5025,24 +5103,24 @@
       <c r="P34" s="44"/>
       <c r="Q34" s="51"/>
     </row>
-    <row r="35" spans="1:17" ht="69" x14ac:dyDescent="0.25">
-      <c r="A35" s="60" t="s">
+    <row r="35" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="B35" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="D35" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="E35" s="44" t="s">
-        <v>256</v>
-      </c>
       <c r="F35" s="68" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G35" s="47" t="s">
         <v>25</v>
@@ -5054,7 +5132,7 @@
         <v>22</v>
       </c>
       <c r="J35" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K35" s="51"/>
       <c r="L35" s="51"/>
@@ -5065,23 +5143,23 @@
       <c r="Q35" s="51"/>
     </row>
     <row r="36" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="60" t="s">
+      <c r="A36" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="B36" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="B36" s="44" t="s">
-        <v>257</v>
-      </c>
       <c r="C36" s="44" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D36" s="69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F36" s="68" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G36" s="47" t="s">
         <v>25</v>
@@ -5093,7 +5171,7 @@
         <v>22</v>
       </c>
       <c r="J36" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K36" s="51"/>
       <c r="L36" s="51"/>
@@ -5103,24 +5181,24 @@
       <c r="P36" s="44"/>
       <c r="Q36" s="51"/>
     </row>
-    <row r="37" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="60" t="s">
-        <v>253</v>
+    <row r="37" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="44" t="s">
+        <v>248</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D37" s="69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G37" s="47" t="s">
         <v>25</v>
@@ -5132,7 +5210,7 @@
         <v>22</v>
       </c>
       <c r="J37" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K37" s="51"/>
       <c r="L37" s="51"/>
@@ -5142,24 +5220,24 @@
       <c r="P37" s="44"/>
       <c r="Q37" s="51"/>
     </row>
-    <row r="38" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="60" t="s">
-        <v>264</v>
+    <row r="38" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+      <c r="A38" s="44" t="s">
+        <v>257</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D38" s="69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E38" s="44" t="s">
         <v>261</v>
       </c>
       <c r="F38" s="68" t="s">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="G38" s="47" t="s">
         <v>25</v>
@@ -5171,7 +5249,7 @@
         <v>22</v>
       </c>
       <c r="J38" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K38" s="51"/>
       <c r="L38" s="51"/>
@@ -5181,21 +5259,19 @@
       <c r="P38" s="44"/>
       <c r="Q38" s="51"/>
     </row>
-    <row r="39" spans="1:17" ht="69" x14ac:dyDescent="0.25">
-      <c r="A39" s="60" t="s">
-        <v>265</v>
+    <row r="39" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="44" t="s">
+        <v>258</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="D39" s="69" t="s">
-        <v>141</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="D39" s="69"/>
       <c r="E39" s="44" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F39" s="68" t="s">
         <v>127</v>
@@ -5210,7 +5286,7 @@
         <v>22</v>
       </c>
       <c r="J39" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K39" s="51"/>
       <c r="L39" s="51"/>
@@ -5220,19 +5296,21 @@
       <c r="P39" s="44"/>
       <c r="Q39" s="51"/>
     </row>
-    <row r="40" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="60" t="s">
-        <v>278</v>
+    <row r="40" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="44" t="s">
+        <v>271</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>270</v>
-      </c>
-      <c r="D40" s="69"/>
+        <v>265</v>
+      </c>
+      <c r="D40" s="69" t="s">
+        <v>139</v>
+      </c>
       <c r="E40" s="44" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F40" s="68" t="s">
         <v>128</v>
@@ -5247,7 +5325,7 @@
         <v>22</v>
       </c>
       <c r="J40" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K40" s="51"/>
       <c r="L40" s="51"/>
@@ -5257,21 +5335,21 @@
       <c r="P40" s="44"/>
       <c r="Q40" s="51"/>
     </row>
-    <row r="41" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="60" t="s">
-        <v>279</v>
+    <row r="41" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+      <c r="A41" s="44" t="s">
+        <v>272</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D41" s="69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E41" s="44" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F41" s="68" t="s">
         <v>129</v>
@@ -5286,7 +5364,7 @@
         <v>22</v>
       </c>
       <c r="J41" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K41" s="51"/>
       <c r="L41" s="51"/>
@@ -5296,21 +5374,21 @@
       <c r="P41" s="44"/>
       <c r="Q41" s="51"/>
     </row>
-    <row r="42" spans="1:17" ht="69" x14ac:dyDescent="0.25">
-      <c r="A42" s="60" t="s">
-        <v>280</v>
+    <row r="42" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="44" t="s">
+        <v>273</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C42" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="D42" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" s="44" t="s">
         <v>267</v>
-      </c>
-      <c r="D42" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="E42" s="44" t="s">
-        <v>274</v>
       </c>
       <c r="F42" s="68" t="s">
         <v>130</v>
@@ -5325,7 +5403,7 @@
         <v>22</v>
       </c>
       <c r="J42" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K42" s="51"/>
       <c r="L42" s="51"/>
@@ -5335,44 +5413,21 @@
       <c r="P42" s="44"/>
       <c r="Q42" s="51"/>
     </row>
-    <row r="43" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="60" t="s">
-        <v>281</v>
-      </c>
-      <c r="B43" s="44" t="s">
-        <v>277</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>272</v>
-      </c>
-      <c r="D43" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="E43" s="44" t="s">
-        <v>274</v>
-      </c>
-      <c r="F43" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="G43" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" s="48">
-        <v>43161</v>
-      </c>
-      <c r="I43" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J43" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="51"/>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="8"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
@@ -5423,8 +5478,6 @@
       <c r="Q46" s="8"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
       <c r="F47" s="29"/>
       <c r="G47" s="10"/>
       <c r="H47" s="8"/>
@@ -6996,7 +7049,7 @@
       <c r="F159" s="29"/>
       <c r="G159" s="10"/>
       <c r="H159" s="8"/>
-      <c r="I159" s="9"/>
+      <c r="I159" s="8"/>
       <c r="J159" s="8"/>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
@@ -7022,7 +7075,7 @@
     </row>
     <row r="161" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F161" s="29"/>
-      <c r="G161" s="10"/>
+      <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
@@ -7048,24 +7101,10 @@
       <c r="P162" s="3"/>
       <c r="Q162" s="8"/>
     </row>
-    <row r="163" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F163" s="29"/>
-      <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
-      <c r="I163" s="8"/>
-      <c r="J163" s="8"/>
-      <c r="K163" s="8"/>
-      <c r="L163" s="8"/>
-      <c r="M163" s="8"/>
-      <c r="N163" s="8"/>
-      <c r="O163" s="8"/>
-      <c r="P163" s="3"/>
-      <c r="Q163" s="8"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="I46:I161">
+  <conditionalFormatting sqref="I45:I160">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Passed ">
-      <formula>NOT(ISERROR(SEARCH("Passed ",I46)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed ",I45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7085,19 +7124,19 @@
           <x14:formula1>
             <xm:f>Settings!$D$4:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L10</xm:sqref>
+          <xm:sqref>L2:L9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>Settings!$A$4:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I45</xm:sqref>
+          <xm:sqref>I2:I44</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Settings!$B$4:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G161</xm:sqref>
+          <xm:sqref>G2:G160</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7112,16 +7151,16 @@
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="8" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="66.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -7138,20 +7177,25 @@
         <v>18</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="4" t="s">
         <v>47</v>
       </c>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="G2" s="14" t="s">
         <v>48</v>
@@ -7162,11 +7206,19 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+    <row r="3" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -7176,11 +7228,19 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+    <row r="4" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -7190,11 +7250,19 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+    <row r="5" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -7204,11 +7272,19 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+    <row r="6" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -7218,11 +7294,19 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+    <row r="7" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -7232,11 +7316,19 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+    <row r="8" spans="1:12" ht="159" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -7246,11 +7338,19 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+    <row r="9" spans="1:12" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -7260,11 +7360,19 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+    <row r="10" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -7275,10 +7383,6 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -7289,10 +7393,6 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -7303,10 +7403,6 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -7317,10 +7413,6 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -7331,10 +7423,6 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -7345,10 +7433,6 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -7358,11 +7442,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -7372,11 +7452,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -7386,11 +7462,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -7402,6 +7474,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7431,7 +7504,7 @@
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -7459,7 +7532,7 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -7473,12 +7546,12 @@
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -7487,15 +7560,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
@@ -7503,7 +7567,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001E5D271886D7BC4489B32236E950D253" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fafa28ded9254246b221396475c25183">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2cae1c83aa815566eff3dc070a92f410" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v4"/>
@@ -7629,25 +7693,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3ADAE87-B24F-455B-BB98-F8685B394F28}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E47EB996-8613-41E2-A939-C861F3808B12}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E47EB996-8613-41E2-A939-C861F3808B12}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AC8EAD5-6125-4B32-B5DE-F2283137C9A4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7663,4 +7734,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3ADAE87-B24F-455B-BB98-F8685B394F28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>